--- a/output/MOMENTUM/rebalance/rebalance_20250331.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250331.xlsx
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02625715574074063</v>
+        <v>0.02625701057328924</v>
       </c>
       <c r="C35" t="n">
         <v>0.01954589640327732</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.006711259337463304</v>
+        <v>-0.006711114170011915</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02195081769736613</v>
+        <v>0.02195077589188721</v>
       </c>
       <c r="C42" t="n">
         <v>0.01893255566356524</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.003018262033800883</v>
+        <v>-0.003018220228321961</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02301837053887574</v>
+        <v>0.02301840741985949</v>
       </c>
       <c r="C44" t="n">
         <v>0.018793686062121</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.004224684476754732</v>
+        <v>-0.004224721357738482</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01966607020034756</v>
+        <v>0.01966596055297783</v>
       </c>
       <c r="C47" t="n">
         <v>0.0186779613942508</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0009881088060967567</v>
+        <v>-0.0009879991587270279</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02183258857275785</v>
+        <v>0.0218326168209793</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02183258857275785</v>
+        <v>-0.0218326168209793</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01731549874515542</v>
+        <v>0.01731556478997443</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01731549874515542</v>
+        <v>-0.01731556478997443</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.019008000604774</v>
+        <v>0.01900808386011313</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.019008000604774</v>
+        <v>-0.01900808386011313</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02096190370767961</v>
+        <v>0.02096191803047573</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02096190370767961</v>
+        <v>-0.02096191803047573</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01776606156353481</v>
+        <v>0.0177660384901968</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01776606156353481</v>
+        <v>-0.0177660384901968</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02010955933536672</v>
+        <v>0.02010960224133639</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02010955933536672</v>
+        <v>-0.02010960224133639</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01508385347916242</v>
+        <v>0.01508411418104421</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01508385347916242</v>
+        <v>-0.01508411418104421</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01913619629523225</v>
+        <v>0.0191360583165216</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01913619629523225</v>
+        <v>-0.0191360583165216</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01856375411373176</v>
+        <v>0.0185636632499895</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01856375411373176</v>
+        <v>-0.0185636632499895</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02095057719323836</v>
+        <v>0.02095067695461884</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02095057719323836</v>
+        <v>-0.02095067695461884</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02070769609977549</v>
+        <v>0.02070737988435816</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02070769609977549</v>
+        <v>-0.02070737988435816</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.018013388653601</v>
+        <v>0.01801342199426023</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.018013388653601</v>
+        <v>-0.01801342199426023</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01988887680160292</v>
+        <v>0.01988893808004289</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01988887680160292</v>
+        <v>-0.01988893808004289</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02319111898075467</v>
+        <v>0.02319113699660212</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02319111898075467</v>
+        <v>-0.02319113699660212</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02064288874176291</v>
+        <v>0.02064285153770542</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02064288874176291</v>
+        <v>-0.02064285153770542</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01967472622142286</v>
+        <v>0.01967478349974759</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01967472622142286</v>
+        <v>-0.01967478349974759</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01815409957477509</v>
+        <v>0.01815412981337313</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01815409957477509</v>
+        <v>-0.01815412981337313</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01927631385849289</v>
+        <v>0.01927622218703959</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01927631385849289</v>
+        <v>-0.01927622218703959</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01670998047251334</v>
+        <v>0.01670997568445326</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01670998047251334</v>
+        <v>-0.01670997568445326</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01961043375780607</v>
+        <v>0.01961044107322187</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01961043375780607</v>
+        <v>-0.01961044107322187</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01983539346575524</v>
+        <v>0.01983541374007545</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01983539346575524</v>
+        <v>-0.01983541374007545</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02212879482562054</v>
+        <v>0.02212871081048384</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02212879482562054</v>
+        <v>-0.02212871081048384</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01849087822944286</v>
+        <v>0.01849097975743347</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01849087822944286</v>
+        <v>-0.01849097975743347</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01833318401450692</v>
+        <v>0.01833314968126276</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01833318401450692</v>
+        <v>-0.01833314968126276</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01873366937776643</v>
+        <v>0.01873371048587025</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01873366937776643</v>
+        <v>-0.01873371048587025</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02243187002820037</v>
+        <v>0.02243186697108267</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02243187002820037</v>
+        <v>-0.02243186697108267</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02110874377390013</v>
+        <v>0.02110871179157011</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02110874377390013</v>
+        <v>-0.02110871179157011</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01758887558263867</v>
+        <v>0.01758902427633253</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01758887558263867</v>
+        <v>-0.01758902427633253</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02147754174421936</v>
+        <v>0.02147739203685351</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02147754174421936</v>
+        <v>-0.02147739203685351</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02242788672753531</v>
+        <v>0.02242764474915221</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02242788672753531</v>
+        <v>-0.02242764474915221</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02415022068753442</v>
+        <v>0.0241503179247427</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02415022068753442</v>
+        <v>-0.0241503179247427</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01976568443899676</v>
+        <v>0.01976549077251736</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01976568443899676</v>
+        <v>-0.01976549077251736</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02062214672095941</v>
+        <v>0.02062205375275076</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02062214672095941</v>
+        <v>-0.02062205375275076</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01861836089254278</v>
+        <v>0.01861832594624777</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01861836089254278</v>
+        <v>-0.01861832594624777</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0231669142903638</v>
+        <v>0.02316708781912413</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0231669142903638</v>
+        <v>-0.02316708781912413</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01873230720977357</v>
+        <v>0.01873238847240992</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01873230720977357</v>
+        <v>-0.01873238847240992</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01939855994268485</v>
+        <v>0.01939852217621189</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01939855994268485</v>
+        <v>-0.01939852217621189</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01933979975449867</v>
+        <v>0.01933995097413178</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01933979975449867</v>
+        <v>-0.01933995097413178</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02239650064272262</v>
+        <v>0.02239658468900223</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02239650064272262</v>
+        <v>-0.02239658468900223</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8151,13 +8151,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01970700109726892</v>
+        <v>0.01970695030773841</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01970700109726892</v>
+        <v>-0.01970695030773841</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02180250235214714</v>
+        <v>0.02180260875346284</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02180250235214714</v>
+        <v>-0.02180260875346284</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8193,13 +8193,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01689991232442808</v>
+        <v>0.01689990465677084</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01689991232442808</v>
+        <v>-0.01689990465677084</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8214,13 +8214,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01855999217312282</v>
+        <v>0.01856000779171658</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.01855999217312282</v>
+        <v>-0.01856000779171658</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -8235,13 +8235,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01850910826546663</v>
+        <v>0.01850902248024907</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.01850910826546663</v>
+        <v>-0.01850902248024907</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01638193035781362</v>
+        <v>0.01638191467213598</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.01638193035781362</v>
+        <v>-0.01638191467213598</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02190229012961958</v>
+        <v>0.02190249238660301</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02190229012961958</v>
+        <v>-0.02190249238660301</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20250331.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250331.xlsx
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02625701057328924</v>
+        <v>0.02626645722713063</v>
       </c>
       <c r="C35" t="n">
         <v>0.01954589640327732</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.006711114170011915</v>
+        <v>-0.006720560823853309</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02195077589188721</v>
+        <v>0.02195859368171407</v>
       </c>
       <c r="C42" t="n">
         <v>0.01893255566356524</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.003018220228321961</v>
+        <v>-0.003026038018148821</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02301840741985949</v>
+        <v>0.02302652469930352</v>
       </c>
       <c r="C44" t="n">
         <v>0.018793686062121</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.004224721357738482</v>
+        <v>-0.004232838637182514</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01966596055297783</v>
+        <v>0.01967303682255598</v>
       </c>
       <c r="C47" t="n">
         <v>0.0186779613942508</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0009879991587270279</v>
+        <v>-0.000995075428305181</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0218326168209793</v>
+        <v>0.02184032267493835</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0218326168209793</v>
+        <v>-0.02184032267493835</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01731556478997443</v>
+        <v>0.01708050698456294</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01731556478997443</v>
+        <v>-0.01708050698456294</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01900808386011313</v>
+        <v>0.0190147341086109</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01900808386011313</v>
+        <v>-0.0190147341086109</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02096191803047573</v>
+        <v>0.02096932937342843</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02096191803047573</v>
+        <v>-0.02096932937342843</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0177660384901968</v>
+        <v>0.01777235511571802</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0177660384901968</v>
+        <v>-0.01777235511571802</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02010960224133639</v>
+        <v>0.02000356299313393</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02010960224133639</v>
+        <v>-0.02000356299313393</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01508411418104421</v>
+        <v>0.01508919687047375</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01508411418104421</v>
+        <v>-0.01508919687047375</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0191360583165216</v>
+        <v>0.01914297521185041</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0191360583165216</v>
+        <v>-0.01914297521185041</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0185636632499895</v>
+        <v>0.01857033024512775</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0185636632499895</v>
+        <v>-0.01857033024512775</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02095067695461884</v>
+        <v>0.02095799884661734</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02095067695461884</v>
+        <v>-0.02095799884661734</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02070737988435816</v>
+        <v>0.02071503171355417</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02070737988435816</v>
+        <v>-0.02071503171355417</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01801342199426023</v>
+        <v>0.01801976982036002</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01801342199426023</v>
+        <v>-0.01801976982036002</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01988893808004289</v>
+        <v>0.01989592235210767</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01988893808004289</v>
+        <v>-0.01989592235210767</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02319113699660212</v>
+        <v>0.02319933433658751</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02319113699660212</v>
+        <v>-0.02319933433658751</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02064285153770542</v>
+        <v>0.02065020139780904</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02064285153770542</v>
+        <v>-0.02065020139780904</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01967478349974759</v>
+        <v>0.01968169590999013</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01967478349974759</v>
+        <v>-0.01968169590999013</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01815412981337313</v>
+        <v>0.01816053058778293</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01815412981337313</v>
+        <v>-0.01816053058778293</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01927622218703959</v>
+        <v>0.01928314241116532</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01927622218703959</v>
+        <v>-0.01928314241116532</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01670997568445326</v>
+        <v>0.01671589991243581</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01670997568445326</v>
+        <v>-0.01671589991243581</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01961044107322187</v>
+        <v>0.01961738067103998</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01961044107322187</v>
+        <v>-0.01961738067103998</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01983541374007545</v>
+        <v>0.01984242007001443</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01983541374007545</v>
+        <v>-0.01984242007001443</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02212871081048384</v>
+        <v>0.02213663385761357</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02212871081048384</v>
+        <v>-0.02213663385761357</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01849097975743347</v>
+        <v>0.01849742854486501</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01849097975743347</v>
+        <v>-0.01849742854486501</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01833314968126276</v>
+        <v>0.01833967846742026</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01833314968126276</v>
+        <v>-0.01833967846742026</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01873371048587025</v>
+        <v>0.01874030570092621</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01873371048587025</v>
+        <v>-0.01874030570092621</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02243186697108267</v>
+        <v>0.02243981642330233</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02243186697108267</v>
+        <v>-0.02243981642330233</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02110871179157011</v>
+        <v>0.02111622145712147</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02110871179157011</v>
+        <v>-0.02111622145712147</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01758902427633253</v>
+        <v>0.0175951063674374</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01758902427633253</v>
+        <v>-0.0175951063674374</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02147739203685351</v>
+        <v>0.0214851500725622</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02147739203685351</v>
+        <v>-0.0214851500725622</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02242764474915221</v>
+        <v>0.02243583171156985</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02242764474915221</v>
+        <v>-0.02243583171156985</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0241503179247427</v>
+        <v>0.02415877580109121</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0241503179247427</v>
+        <v>-0.02415877580109121</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01976549077251736</v>
+        <v>0.019772686349128</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01976549077251736</v>
+        <v>-0.019772686349128</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02062205375275076</v>
+        <v>0.02062945202923238</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02062205375275076</v>
+        <v>-0.02062945202923238</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01861832594624777</v>
+        <v>0.01862495636815926</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01861832594624777</v>
+        <v>-0.01862495636815926</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02316708781912413</v>
+        <v>0.02317512107178741</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02316708781912413</v>
+        <v>-0.02317512107178741</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01873238847240992</v>
+        <v>0.0187389430503911</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01873238847240992</v>
+        <v>-0.0187389430503911</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01939852217621189</v>
+        <v>0.01940543180051568</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01939852217621189</v>
+        <v>-0.01940543180051568</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01933995097413178</v>
+        <v>0.01934665079678131</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01933995097413178</v>
+        <v>-0.01934665079678131</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02239658468900223</v>
+        <v>0.02240443450836934</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02239658468900223</v>
+        <v>-0.02240443450836934</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8151,13 +8151,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01970695030773841</v>
+        <v>0.01971398221907449</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01970695030773841</v>
+        <v>-0.01971398221907449</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02180260875346284</v>
+        <v>0.02181022579641119</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02180260875346284</v>
+        <v>-0.02181022579641119</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8193,13 +8193,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01689990465677084</v>
+        <v>0.01690589904690595</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01689990465677084</v>
+        <v>-0.01690589904690595</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8214,13 +8214,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01856000779171658</v>
+        <v>0.01856656697186726</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.01856000779171658</v>
+        <v>-0.01856656697186726</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -8235,13 +8235,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01850902248024907</v>
+        <v>0.01851566503880196</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.01850902248024907</v>
+        <v>-0.01851566503880196</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01638191467213598</v>
+        <v>0.01638773358737016</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.01638191467213598</v>
+        <v>-0.01638773358737016</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02190249238660301</v>
+        <v>0.02191004892328185</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02190249238660301</v>
+        <v>-0.02191004892328185</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
